--- a/Baselines.xlsx
+++ b/Baselines.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT-HUB\SDPM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D50926A-A1C9-478C-AAEF-E280771356D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A4DB8-F5BE-4819-9F1D-9A36E1AE8409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LINEAS BASE CREADAS" sheetId="1" r:id="rId1"/>
     <sheet name="Lineas Base" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t xml:space="preserve">Nombre de la línea base </t>
   </si>
@@ -40,18 +51,6 @@
     <t>LINEA-BASE</t>
   </si>
   <si>
-    <t>Phase0</t>
-  </si>
-  <si>
-    <t>Phase1</t>
-  </si>
-  <si>
-    <t>Phase2</t>
-  </si>
-  <si>
-    <t>Phase3</t>
-  </si>
-  <si>
     <t>Analisis</t>
   </si>
   <si>
@@ -121,9 +120,6 @@
     <t>Planning review</t>
   </si>
   <si>
-    <t>Phase 3</t>
-  </si>
-  <si>
     <t>Class diagram/Data model-IT1</t>
   </si>
   <si>
@@ -161,6 +157,24 @@
   </si>
   <si>
     <t>Elementos de configuración de las líneas base</t>
+  </si>
+  <si>
+    <t>Phase0: Gestión y control</t>
+  </si>
+  <si>
+    <t>Phase1: Planificación y especificación de requisitos</t>
+  </si>
+  <si>
+    <t>Phase2: Construcción</t>
+  </si>
+  <si>
+    <t>Phase 3: Instalación</t>
+  </si>
+  <si>
+    <t>Phase1: Planifiación y especificación de requisitos</t>
+  </si>
+  <si>
+    <t>Phase3: Instalación</t>
   </si>
 </sst>
 </file>
@@ -284,22 +298,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -655,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,6 +723,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD88C748-090A-49B1-A7FA-C01EC0DADA11}">
+          <x14:formula1>
+            <xm:f>'Lineas Base'!$B$7:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -716,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2A1D96-E603-40B6-9B1D-84D561A7EC39}">
   <dimension ref="B5:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,75 +756,75 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -806,19 +832,19 @@
     </row>
     <row r="9" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -826,19 +852,19 @@
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -846,19 +872,19 @@
     </row>
     <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -866,19 +892,19 @@
     </row>
     <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -886,19 +912,19 @@
     </row>
     <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -906,13 +932,13 @@
     </row>
     <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -923,7 +949,7 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -935,7 +961,7 @@
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -947,7 +973,7 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -970,17 +996,17 @@
   <conditionalFormatting sqref="C13">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D14">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Baselines.xlsx
+++ b/Baselines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT-HUB\SDPM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A4DB8-F5BE-4819-9F1D-9A36E1AE8409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A713CE54-5025-4CED-B088-78C2EB61D7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LINEAS BASE CREADAS" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,6 +316,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,7 +671,7 @@
   <dimension ref="D4:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +744,7 @@
   <dimension ref="B5:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +753,9 @@
     <col min="3" max="3" width="43.42578125" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -782,7 +785,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="12" t="s">
         <v>45</v>
       </c>
     </row>
